--- a/DOM_Banner/output/dept0713/Stephen A Klotz_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Stephen A Klotz_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Southwestern Biological Institute, 1961 W. Brichta Dr., Tucson, AZ 85745, USA; Department of Medicine, University of Arizona, 1501 N. Campbell Ave., Tucson, AZ 85724, USA; Division of Infectious Diseases, Department of Medicine, University of Arizona, 1501 N. Campbell Ave., Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221020769</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Seasonal Flight Pattern of the Kissing Bugs Triatoma rubida and T. protracta (Hemiptera: Reduviidae: Triatominae) in Southern Arizona, United States</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Insects</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/insects13030265</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35323563</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/insects13030265</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Biostatistics Arnold School of Public Health University of South Carolina  Columbia South Carolina USA; Department of Epidemiology and Biostatistics Arnold School of Public Health University of South Carolina  Columbia South Carolina USA; Department of Medicine University of Arizona  Tucson Arizona USA; Division of Infectious Diseases &amp;amp; Global Medicine, Department of Medicine University of Florida  Gainesville Florida USA; Department of Biological Sciences Loyola University New Orleans  New Orleans Louisiana USA; Department of Medicine University of Arizona  Tucson Arizona USA; Scientific Affairs American Red Cross  Gaithersburg Maryland USA; Scientific Affairs American Red Cross  Gaithersburg Maryland USA; Corporate Medical Affairs Vitalant  Scottsdale Arizona USA; Corporate Medical Affairs Vitalant  Scottsdale Arizona USA; Central California Blood Center  Fresno California USA; Division of Parasitic Diseases and Malaria US Centers for Disease Control and Prevention  Atlanta Georgia USA; Division of Parasitic Diseases and Malaria US Centers for Disease Control and Prevention  Atlanta Georgia USA; Department of Epidemiology and Biostatistics Arnold School of Public Health University of South Carolina  Columbia South Carolina USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4288052182</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Evidence of likely autochthonous Chagas disease in the southwestern United States: A case series of &lt;i&gt;Trypanosoma cruzi&lt;/i&gt; seropositive blood donors</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/trf.17026</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35895440</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/trf.17026</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, University of Arizona, Tucson, AZ 85724, USA; Department of Anatomy and Physiology, San Jacinto College, Houston, TX 77049, USA; Department of Biology, Brooklyn College of the City University of New York, New York, NY 11210, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294169043</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Blocking Serum Amyloid-P Component from Binding to Macrophages and Augmenting Fungal Functional Amyloid Increases Macrophage Phagocytosis of Candida albicans</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Pathogens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11091000</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36145432</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11091000</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Biology, Brooklyn College, CUNY, New York, NY 11210, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308440488</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>The Paradoxical Effects of Serum Amyloid-P Component on Disseminated Candidiasis</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pathogens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11111304</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36365055</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11111304</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Telemedicine, Petersen Clinics, Tucson, Arizona, USA.; Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona, USA.; Arizona Department of Health Services, Phoenix, Arizona, USA.; Arizona Poison and Drug Information Center, Arizona College of Pharmacy, University of Arizona, Tucson, Arizona, USA.; Arizona Poison and Drug Information Center, Arizona College of Pharmacy, University of Arizona, Tucson, Arizona, USA.; Department of Emergency Medicine, University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3200095523</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>e-Health for COVID-19 Epidemic: The Arizona Poison and Drug Information Center Experience</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Telemedicine Journal and E-health</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/tmj.2021.0287</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34546097</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/tmj.2021.0287</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4212797688</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Review of: "Assessing risk of vector transmission of Chagas disease through blood source analysis using LC-MS/MS for hemoglobin sequence identification"</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-02-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.32388/cwlq6i</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.32388/cwlq6i</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>peer-review</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220864196</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>April 2022 Critical Care Case of the Month: Bullous Skin Lesions in the ICU</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs014-22</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs014-22</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Medical Center - University Campus, Tucson, AZ, USA; Department of Medicine, University of Arizona Medical Center - University Campus, Tucson, AZ, USA; Department of Immunology, College of Medicine, University of Arizona, Tucson, AZ, USA; Department of Medicine, University of Arizona Medical Center - University Campus, Tucson, AZ, USA; Department of Immunology, College of Medicine, University of Arizona, Tucson, AZ, USA; Department of Medicine, University of Arizona Medical Center - University Campus, Tucson, AZ, USA; AZ and Department of Surgery, Baylor College of Medicine, Houston, TX, USA; Department of Immunology, College of Medicine, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224112284</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Phenotypic frailty in people living with HIV is not correlated with age or immunosenescence</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-04-04</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>International Journal of STD &amp; AIDS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/09564624221091455</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35377254</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/09564624221091455</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Immunobiology, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ 85721, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283835117</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Genetic Analysis of HIV-1 vpr Sequences from HIV-Infected Older Patients on Long-Term Antiretroviral Therapy</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Current HIV Research</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Bentham Science Publishers</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.2174/1570162x20666220705124341</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35792120</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.2174/1570162x20666220705124341</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
